--- a/Traduzido/PTBR/Lang/PTBR/Game/SpawnList.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/SpawnList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73E62D-EDFE-4783-8AF7-30609100D8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDDE693-6CBA-45AE-AA27-3F6E714CA184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14625" yWindow="1425" windowWidth="11025" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnList" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>Alpha 20.27</t>
+  </si>
+  <si>
+    <t>c_sand</t>
+  </si>
+  <si>
+    <t>EA 23.112</t>
   </si>
 </sst>
 </file>
@@ -565,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,15 +676,15 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -686,47 +692,47 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -734,7 +740,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -742,7 +748,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -750,39 +756,39 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -790,23 +796,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -814,7 +820,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -822,7 +828,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -830,7 +836,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
@@ -838,7 +844,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -846,7 +852,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -854,23 +860,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -878,7 +884,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
@@ -886,7 +892,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -894,7 +900,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -902,17 +908,25 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>56</v>
       </c>
     </row>
